--- a/data/pca/factorExposure/factorExposure_2015-10-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01314183481588907</v>
+        <v>0.01372486551273206</v>
       </c>
       <c r="C2">
-        <v>-0.03345964660790725</v>
+        <v>0.03734115732973707</v>
       </c>
       <c r="D2">
-        <v>0.09654437582227723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1279809048862622</v>
+      </c>
+      <c r="E2">
+        <v>-0.06633500201483924</v>
+      </c>
+      <c r="F2">
+        <v>0.03079140726230466</v>
+      </c>
+      <c r="G2">
+        <v>-0.09062159698666879</v>
+      </c>
+      <c r="H2">
+        <v>0.07293572345526081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01592913485798927</v>
+        <v>0.01064693245924766</v>
       </c>
       <c r="C3">
-        <v>-0.05811928214596804</v>
+        <v>0.04352863823790516</v>
       </c>
       <c r="D3">
-        <v>0.08675986355045107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05474673065642575</v>
+      </c>
+      <c r="E3">
+        <v>-0.04890850816194558</v>
+      </c>
+      <c r="F3">
+        <v>0.06196931574542417</v>
+      </c>
+      <c r="G3">
+        <v>-0.1130706516664697</v>
+      </c>
+      <c r="H3">
+        <v>0.01695947922530477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04865625656208711</v>
+        <v>0.05180539554147842</v>
       </c>
       <c r="C4">
-        <v>-0.05447235263703067</v>
+        <v>0.07050264617927447</v>
       </c>
       <c r="D4">
-        <v>0.1271185672857967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1471690160637688</v>
+      </c>
+      <c r="E4">
+        <v>-0.05366691508804163</v>
+      </c>
+      <c r="F4">
+        <v>0.02376901889010286</v>
+      </c>
+      <c r="G4">
+        <v>0.04564716145620435</v>
+      </c>
+      <c r="H4">
+        <v>0.0103779032145903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03915982329952195</v>
+        <v>0.03898977581886226</v>
       </c>
       <c r="C6">
-        <v>-0.01783885487234946</v>
+        <v>0.02856901067145143</v>
       </c>
       <c r="D6">
-        <v>0.1439319460319985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1429143625086614</v>
+      </c>
+      <c r="E6">
+        <v>-0.02413747355142831</v>
+      </c>
+      <c r="F6">
+        <v>0.01681038483616547</v>
+      </c>
+      <c r="G6">
+        <v>-0.004486188824486252</v>
+      </c>
+      <c r="H6">
+        <v>0.05023948886471638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01583595372973579</v>
+        <v>0.01287461723280277</v>
       </c>
       <c r="C7">
-        <v>-0.02520237086528315</v>
+        <v>0.03408150538795747</v>
       </c>
       <c r="D7">
-        <v>0.1049839722847429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09769045666568749</v>
+      </c>
+      <c r="E7">
+        <v>-0.02110252631207722</v>
+      </c>
+      <c r="F7">
+        <v>0.02337329352266232</v>
+      </c>
+      <c r="G7">
+        <v>-0.03496555268059214</v>
+      </c>
+      <c r="H7">
+        <v>0.07775097312393053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008212197056227836</v>
+        <v>0.00628959352916364</v>
       </c>
       <c r="C8">
-        <v>-0.02827464354211804</v>
+        <v>0.03897393131245238</v>
       </c>
       <c r="D8">
-        <v>0.0631584702818787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08073161601928952</v>
+      </c>
+      <c r="E8">
+        <v>-0.0305216242890577</v>
+      </c>
+      <c r="F8">
+        <v>0.04553297539027806</v>
+      </c>
+      <c r="G8">
+        <v>-0.03020598134134003</v>
+      </c>
+      <c r="H8">
+        <v>0.04001954692460537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0408029779408163</v>
+        <v>0.04149660739541243</v>
       </c>
       <c r="C9">
-        <v>-0.05201523026993763</v>
+        <v>0.06566914972917133</v>
       </c>
       <c r="D9">
-        <v>0.1102897906297013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1215259954720252</v>
+      </c>
+      <c r="E9">
+        <v>-0.04003979186657345</v>
+      </c>
+      <c r="F9">
+        <v>0.006830903112642157</v>
+      </c>
+      <c r="G9">
+        <v>0.023412089045018</v>
+      </c>
+      <c r="H9">
+        <v>0.01490268497342281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1140573747644084</v>
+        <v>0.1466890815747046</v>
       </c>
       <c r="C10">
-        <v>0.18623854545307</v>
+        <v>-0.1873123305562547</v>
       </c>
       <c r="D10">
-        <v>-0.002900634201961843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.006588349856811333</v>
+      </c>
+      <c r="E10">
+        <v>-0.04826588230606935</v>
+      </c>
+      <c r="F10">
+        <v>0.0357529257968697</v>
+      </c>
+      <c r="G10">
+        <v>0.01883734895811501</v>
+      </c>
+      <c r="H10">
+        <v>-0.0296258388231225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03026404237498376</v>
+        <v>0.02819447670457634</v>
       </c>
       <c r="C11">
-        <v>-0.03953608265886847</v>
+        <v>0.04467978102167548</v>
       </c>
       <c r="D11">
-        <v>0.05854286484927137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05807404088143593</v>
+      </c>
+      <c r="E11">
+        <v>0.006516452971864427</v>
+      </c>
+      <c r="F11">
+        <v>0.00327375764144454</v>
+      </c>
+      <c r="G11">
+        <v>-0.01478679950923253</v>
+      </c>
+      <c r="H11">
+        <v>0.03512251922932595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03681268776534014</v>
+        <v>0.03361086369150249</v>
       </c>
       <c r="C12">
-        <v>-0.04219676699063984</v>
+        <v>0.04743399687838343</v>
       </c>
       <c r="D12">
-        <v>0.06123601804689627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0569277304110774</v>
+      </c>
+      <c r="E12">
+        <v>-0.0004969617527968243</v>
+      </c>
+      <c r="F12">
+        <v>-0.005539258780449144</v>
+      </c>
+      <c r="G12">
+        <v>-0.02319968998930962</v>
+      </c>
+      <c r="H12">
+        <v>0.03346199455696938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01213956501054938</v>
+        <v>0.01652428572892544</v>
       </c>
       <c r="C13">
-        <v>-0.03224622082077721</v>
+        <v>0.03958376194481456</v>
       </c>
       <c r="D13">
-        <v>0.1353797462301483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1541237788823351</v>
+      </c>
+      <c r="E13">
+        <v>-0.03350898301421966</v>
+      </c>
+      <c r="F13">
+        <v>0.04675263273344627</v>
+      </c>
+      <c r="G13">
+        <v>-0.03303335842512816</v>
+      </c>
+      <c r="H13">
+        <v>0.06638451473978287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.003542890856981314</v>
+        <v>0.006830419051007532</v>
       </c>
       <c r="C14">
-        <v>-0.01984400960756713</v>
+        <v>0.0235030903900743</v>
       </c>
       <c r="D14">
-        <v>0.08883967574722947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0944127939379277</v>
+      </c>
+      <c r="E14">
+        <v>-0.03073143315609609</v>
+      </c>
+      <c r="F14">
+        <v>0.004070219776773981</v>
+      </c>
+      <c r="G14">
+        <v>-0.03771889810427764</v>
+      </c>
+      <c r="H14">
+        <v>0.09427519153042106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002620851634852819</v>
+        <v>0.001083016365476198</v>
       </c>
       <c r="C15">
-        <v>-0.00152753178739418</v>
+        <v>0.01197619133629485</v>
       </c>
       <c r="D15">
-        <v>0.002726096860417537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03552536364072309</v>
+      </c>
+      <c r="E15">
+        <v>-0.008333857725278207</v>
+      </c>
+      <c r="F15">
+        <v>-0.001174241425908748</v>
+      </c>
+      <c r="G15">
+        <v>-0.008985179596624208</v>
+      </c>
+      <c r="H15">
+        <v>0.01619614380683382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03040751534172707</v>
+        <v>0.02935922613401665</v>
       </c>
       <c r="C16">
-        <v>-0.04356502518743099</v>
+        <v>0.04554215692187411</v>
       </c>
       <c r="D16">
-        <v>0.06739062993300539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06316954356385499</v>
+      </c>
+      <c r="E16">
+        <v>-0.006064388909844232</v>
+      </c>
+      <c r="F16">
+        <v>-0.004535351131912003</v>
+      </c>
+      <c r="G16">
+        <v>-0.0175134655086082</v>
+      </c>
+      <c r="H16">
+        <v>0.04954944611232632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006862769303746365</v>
+        <v>0.005238470187271678</v>
       </c>
       <c r="C19">
-        <v>-0.03096572235154373</v>
+        <v>0.02485782936690095</v>
       </c>
       <c r="D19">
-        <v>0.153361007019037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1170511761454844</v>
+      </c>
+      <c r="E19">
+        <v>-0.06066631392652221</v>
+      </c>
+      <c r="F19">
+        <v>-0.006307351151663196</v>
+      </c>
+      <c r="G19">
+        <v>-0.04616408408901834</v>
+      </c>
+      <c r="H19">
+        <v>0.03639197999777341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01246422440130308</v>
+        <v>0.01484346986412208</v>
       </c>
       <c r="C20">
-        <v>-0.03090120023783386</v>
+        <v>0.03470237970525106</v>
       </c>
       <c r="D20">
-        <v>0.08762007009727152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1022872855218817</v>
+      </c>
+      <c r="E20">
+        <v>-0.04899959828073516</v>
+      </c>
+      <c r="F20">
+        <v>0.002733059404748264</v>
+      </c>
+      <c r="G20">
+        <v>-0.0138214409350465</v>
+      </c>
+      <c r="H20">
+        <v>0.05338098197899432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004912455337185587</v>
+        <v>0.008819290376638275</v>
       </c>
       <c r="C21">
-        <v>-0.02774346123358423</v>
+        <v>0.03737068793539783</v>
       </c>
       <c r="D21">
-        <v>0.1335142504059134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1431179096220686</v>
+      </c>
+      <c r="E21">
+        <v>-0.07978622540474234</v>
+      </c>
+      <c r="F21">
+        <v>0.01427212501142275</v>
+      </c>
+      <c r="G21">
+        <v>-0.01906130875930006</v>
+      </c>
+      <c r="H21">
+        <v>0.0676450258847598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00398929018898948</v>
+        <v>0.005143860394777741</v>
       </c>
       <c r="C22">
-        <v>-0.03022352061172629</v>
+        <v>0.04273540251873287</v>
       </c>
       <c r="D22">
-        <v>0.09925869007274679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1566441716030638</v>
+      </c>
+      <c r="E22">
+        <v>-0.02527367147905011</v>
+      </c>
+      <c r="F22">
+        <v>0.08576170786741051</v>
+      </c>
+      <c r="G22">
+        <v>-0.04155928579403723</v>
+      </c>
+      <c r="H22">
+        <v>-0.007342121135386261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004103597240065014</v>
+        <v>0.005280598227475412</v>
       </c>
       <c r="C23">
-        <v>-0.03019265016725766</v>
+        <v>0.04322332924735076</v>
       </c>
       <c r="D23">
-        <v>0.09854579357212977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.15596174959689</v>
+      </c>
+      <c r="E23">
+        <v>-0.02573035901178124</v>
+      </c>
+      <c r="F23">
+        <v>0.08567295688865569</v>
+      </c>
+      <c r="G23">
+        <v>-0.04065982946229388</v>
+      </c>
+      <c r="H23">
+        <v>-0.007653452241789594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03339229401985131</v>
+        <v>0.03046400837823489</v>
       </c>
       <c r="C24">
-        <v>-0.05153279658908758</v>
+        <v>0.05723567769996469</v>
       </c>
       <c r="D24">
-        <v>0.06704247565733951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06649316163759715</v>
+      </c>
+      <c r="E24">
+        <v>-0.01095312390950777</v>
+      </c>
+      <c r="F24">
+        <v>-0.001493421961011634</v>
+      </c>
+      <c r="G24">
+        <v>-0.01434221931857524</v>
+      </c>
+      <c r="H24">
+        <v>0.05742741668731911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03669698167529636</v>
+        <v>0.03441993291208242</v>
       </c>
       <c r="C25">
-        <v>-0.05104871590581413</v>
+        <v>0.05473013396594809</v>
       </c>
       <c r="D25">
-        <v>0.06608525668764832</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06242602369600927</v>
+      </c>
+      <c r="E25">
+        <v>-0.01180623045404596</v>
+      </c>
+      <c r="F25">
+        <v>0.003123409546128417</v>
+      </c>
+      <c r="G25">
+        <v>-0.01506666937677222</v>
+      </c>
+      <c r="H25">
+        <v>0.02818517764314759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01618804903428716</v>
+        <v>0.0182084373474722</v>
       </c>
       <c r="C26">
-        <v>-0.01102125805162299</v>
+        <v>0.01752009158702635</v>
       </c>
       <c r="D26">
-        <v>0.05990747550164652</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06728691376897399</v>
+      </c>
+      <c r="E26">
+        <v>-0.02192625101635944</v>
+      </c>
+      <c r="F26">
+        <v>0.0100338082815842</v>
+      </c>
+      <c r="G26">
+        <v>-0.02024388893458592</v>
+      </c>
+      <c r="H26">
+        <v>0.0608356160376437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1622972504896087</v>
+        <v>0.2079081593890633</v>
       </c>
       <c r="C28">
-        <v>0.2539508702652927</v>
+        <v>-0.2500262944178053</v>
       </c>
       <c r="D28">
-        <v>-0.0304424595102765</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01166090940930849</v>
+      </c>
+      <c r="E28">
+        <v>-0.07973188680365886</v>
+      </c>
+      <c r="F28">
+        <v>0.01978940721711238</v>
+      </c>
+      <c r="G28">
+        <v>0.04103911023275322</v>
+      </c>
+      <c r="H28">
+        <v>-0.03045785003891657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001878024743745683</v>
+        <v>0.004452117546119482</v>
       </c>
       <c r="C29">
-        <v>-0.02021196401289818</v>
+        <v>0.02240432861374022</v>
       </c>
       <c r="D29">
-        <v>0.07364245181010867</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.09284205688625659</v>
+      </c>
+      <c r="E29">
+        <v>-0.0251327779036036</v>
+      </c>
+      <c r="F29">
+        <v>0.0199546952049681</v>
+      </c>
+      <c r="G29">
+        <v>-0.02364664203460039</v>
+      </c>
+      <c r="H29">
+        <v>0.09758214028327621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02880510421295678</v>
+        <v>0.03753296860772203</v>
       </c>
       <c r="C30">
-        <v>-0.0398207285461795</v>
+        <v>0.06142015736627923</v>
       </c>
       <c r="D30">
-        <v>0.1584381079504045</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1726651831448625</v>
+      </c>
+      <c r="E30">
+        <v>-0.02021156355032727</v>
+      </c>
+      <c r="F30">
+        <v>0.005432228076490295</v>
+      </c>
+      <c r="G30">
+        <v>0.002459022277130952</v>
+      </c>
+      <c r="H30">
+        <v>0.07309596643114891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06036410651264896</v>
+        <v>0.05271349527680021</v>
       </c>
       <c r="C31">
-        <v>-0.06054812435367446</v>
+        <v>0.07598241724580783</v>
       </c>
       <c r="D31">
-        <v>0.06899699501981972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0539275238286022</v>
+      </c>
+      <c r="E31">
+        <v>-0.02977672148510006</v>
+      </c>
+      <c r="F31">
+        <v>0.03614957041317347</v>
+      </c>
+      <c r="G31">
+        <v>-0.003949111260193059</v>
+      </c>
+      <c r="H31">
+        <v>0.01594804901264949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008135497841407824</v>
+        <v>0.01540425357039828</v>
       </c>
       <c r="C32">
-        <v>-0.009807624033180626</v>
+        <v>0.01540187189582689</v>
       </c>
       <c r="D32">
-        <v>0.07097781026559008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1136764610147521</v>
+      </c>
+      <c r="E32">
+        <v>-0.08792367696125072</v>
+      </c>
+      <c r="F32">
+        <v>0.03208898416573613</v>
+      </c>
+      <c r="G32">
+        <v>-0.0175086963455823</v>
+      </c>
+      <c r="H32">
+        <v>0.05865216873448479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02193706107736025</v>
+        <v>0.02395152077167349</v>
       </c>
       <c r="C33">
-        <v>-0.03266193035415876</v>
+        <v>0.04316237324006753</v>
       </c>
       <c r="D33">
-        <v>0.135540128049064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1348529990150269</v>
+      </c>
+      <c r="E33">
+        <v>-0.0401724139427421</v>
+      </c>
+      <c r="F33">
+        <v>0.01826330728793313</v>
+      </c>
+      <c r="G33">
+        <v>-0.02368600668616429</v>
+      </c>
+      <c r="H33">
+        <v>0.05461519841567031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03163970640212692</v>
+        <v>0.02702001352556315</v>
       </c>
       <c r="C34">
-        <v>-0.06263047783359552</v>
+        <v>0.06226222740057515</v>
       </c>
       <c r="D34">
-        <v>0.06761706329128857</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05529490564053956</v>
+      </c>
+      <c r="E34">
+        <v>0.005026115608326098</v>
+      </c>
+      <c r="F34">
+        <v>-0.005705026790505506</v>
+      </c>
+      <c r="G34">
+        <v>-0.02938189025046234</v>
+      </c>
+      <c r="H34">
+        <v>0.04248103604803791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007118776083377289</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009357189421570145</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.006851883066539863</v>
+      </c>
+      <c r="E35">
+        <v>0.0006002674879706335</v>
+      </c>
+      <c r="F35">
+        <v>0.001310054231897864</v>
+      </c>
+      <c r="G35">
+        <v>-0.001962099085612585</v>
+      </c>
+      <c r="H35">
+        <v>0.004088435788549861</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01926883251426204</v>
+        <v>0.01948462781230522</v>
       </c>
       <c r="C36">
-        <v>-0.00558173804596346</v>
+        <v>0.01496115944545601</v>
       </c>
       <c r="D36">
-        <v>0.07607438956928617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07831181464114188</v>
+      </c>
+      <c r="E36">
+        <v>-0.02839444501410675</v>
+      </c>
+      <c r="F36">
+        <v>0.007702808014645735</v>
+      </c>
+      <c r="G36">
+        <v>-0.005420154481053596</v>
+      </c>
+      <c r="H36">
+        <v>0.0525064179592826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01907686529468232</v>
+        <v>0.02029153006332063</v>
       </c>
       <c r="C38">
-        <v>-0.01742686460151216</v>
+        <v>0.02081657133334999</v>
       </c>
       <c r="D38">
-        <v>0.05900882702076656</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06343325991321677</v>
+      </c>
+      <c r="E38">
+        <v>-0.03469966104785761</v>
+      </c>
+      <c r="F38">
+        <v>-0.005305273785027449</v>
+      </c>
+      <c r="G38">
+        <v>-0.0471006990772898</v>
+      </c>
+      <c r="H38">
+        <v>0.02792155326852016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03541764810887268</v>
+        <v>0.03419885232687424</v>
       </c>
       <c r="C39">
-        <v>-0.0532388795976922</v>
+        <v>0.06809729268728267</v>
       </c>
       <c r="D39">
-        <v>0.08828128721860826</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1024967834454651</v>
+      </c>
+      <c r="E39">
+        <v>-0.004481221285214354</v>
+      </c>
+      <c r="F39">
+        <v>-0.02515833410867034</v>
+      </c>
+      <c r="G39">
+        <v>-0.02150355647007463</v>
+      </c>
+      <c r="H39">
+        <v>0.09314207112409033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01507136447940562</v>
+        <v>0.01124095935621393</v>
       </c>
       <c r="C40">
-        <v>-0.04183889627392931</v>
+        <v>0.04026442554403469</v>
       </c>
       <c r="D40">
-        <v>0.07525602694938388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0842806464197676</v>
+      </c>
+      <c r="E40">
+        <v>-0.05587234523110847</v>
+      </c>
+      <c r="F40">
+        <v>0.08057929185570584</v>
+      </c>
+      <c r="G40">
+        <v>-0.1224265139569393</v>
+      </c>
+      <c r="H40">
+        <v>0.09922312657731422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02433029679474629</v>
+        <v>0.02381051019702945</v>
       </c>
       <c r="C41">
-        <v>-0.0009510961192205788</v>
+        <v>0.009073748489827949</v>
       </c>
       <c r="D41">
-        <v>0.06939039051428175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05707944208926447</v>
+      </c>
+      <c r="E41">
+        <v>-0.05263940764199476</v>
+      </c>
+      <c r="F41">
+        <v>0.007157061057949528</v>
+      </c>
+      <c r="G41">
+        <v>-0.03177160826004445</v>
+      </c>
+      <c r="H41">
+        <v>0.03203451815594911</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02780650110105632</v>
+        <v>0.02358599305181617</v>
       </c>
       <c r="C43">
-        <v>-0.01383416018024231</v>
+        <v>0.01898545818663413</v>
       </c>
       <c r="D43">
-        <v>0.1081889690766698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08612382724697651</v>
+      </c>
+      <c r="E43">
+        <v>-0.02913626426957252</v>
+      </c>
+      <c r="F43">
+        <v>0.008597008931575001</v>
+      </c>
+      <c r="G43">
+        <v>-0.03834510885494821</v>
+      </c>
+      <c r="H43">
+        <v>0.04167619451738749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01240202176224342</v>
+        <v>0.01554613645186411</v>
       </c>
       <c r="C44">
-        <v>-0.04291859992981781</v>
+        <v>0.04248077969484689</v>
       </c>
       <c r="D44">
-        <v>0.07993874309431682</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1034909819605347</v>
+      </c>
+      <c r="E44">
+        <v>-0.06162973387517579</v>
+      </c>
+      <c r="F44">
+        <v>0.01726499060710011</v>
+      </c>
+      <c r="G44">
+        <v>-0.03064554082252453</v>
+      </c>
+      <c r="H44">
+        <v>0.0558697127439379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01289547729819317</v>
+        <v>0.01281073253772877</v>
       </c>
       <c r="C46">
-        <v>-0.02395210890760456</v>
+        <v>0.03031338092692853</v>
       </c>
       <c r="D46">
-        <v>0.0821811366216362</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08837642399592287</v>
+      </c>
+      <c r="E46">
+        <v>-0.03106746030936075</v>
+      </c>
+      <c r="F46">
+        <v>-0.006616792070120198</v>
+      </c>
+      <c r="G46">
+        <v>-0.02206395790998312</v>
+      </c>
+      <c r="H46">
+        <v>0.08214800509886989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09163636153981317</v>
+        <v>0.08064195437143777</v>
       </c>
       <c r="C47">
-        <v>-0.07881874731687627</v>
+        <v>0.09280936288424373</v>
       </c>
       <c r="D47">
-        <v>0.04341376462685564</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03293616758220588</v>
+      </c>
+      <c r="E47">
+        <v>-0.03699710050254443</v>
+      </c>
+      <c r="F47">
+        <v>0.02208440416373576</v>
+      </c>
+      <c r="G47">
+        <v>0.002675740796109675</v>
+      </c>
+      <c r="H47">
+        <v>-0.05985613615621764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0113126338860041</v>
+        <v>0.01442279147154793</v>
       </c>
       <c r="C48">
-        <v>-0.01551515608417148</v>
+        <v>0.02020424073345437</v>
       </c>
       <c r="D48">
-        <v>0.06343024528240829</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07214222083292858</v>
+      </c>
+      <c r="E48">
+        <v>-0.05038242487632726</v>
+      </c>
+      <c r="F48">
+        <v>0.0033906082755124</v>
+      </c>
+      <c r="G48">
+        <v>-0.008934772652906332</v>
+      </c>
+      <c r="H48">
+        <v>0.05580631080602415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05566598904326597</v>
+        <v>0.05003881098541058</v>
       </c>
       <c r="C50">
-        <v>-0.0590555776591911</v>
+        <v>0.06935318025154232</v>
       </c>
       <c r="D50">
-        <v>0.06041508947582093</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05359916455951441</v>
+      </c>
+      <c r="E50">
+        <v>-0.04085754701345653</v>
+      </c>
+      <c r="F50">
+        <v>0.03772701821316291</v>
+      </c>
+      <c r="G50">
+        <v>-0.03686503332655021</v>
+      </c>
+      <c r="H50">
+        <v>0.0107643621218849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009360806598996508</v>
+        <v>0.01060819470477964</v>
       </c>
       <c r="C51">
-        <v>-0.01451128127988217</v>
+        <v>0.01898360391403054</v>
       </c>
       <c r="D51">
-        <v>0.07915920264568675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09106077899879826</v>
+      </c>
+      <c r="E51">
+        <v>-0.01397319928535263</v>
+      </c>
+      <c r="F51">
+        <v>0.009260262329201888</v>
+      </c>
+      <c r="G51">
+        <v>-0.02570836973653826</v>
+      </c>
+      <c r="H51">
+        <v>0.08449528407180283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08631670306904475</v>
+        <v>0.0849384353121949</v>
       </c>
       <c r="C53">
-        <v>-0.08954155732946208</v>
+        <v>0.1032628940353837</v>
       </c>
       <c r="D53">
-        <v>0.0008285052135855955</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01280685484527579</v>
+      </c>
+      <c r="E53">
+        <v>-0.1129057030404462</v>
+      </c>
+      <c r="F53">
+        <v>0.05668222459341746</v>
+      </c>
+      <c r="G53">
+        <v>0.06408910836713948</v>
+      </c>
+      <c r="H53">
+        <v>-0.007948096552685458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02551973100783908</v>
+        <v>0.02541219562907725</v>
       </c>
       <c r="C54">
-        <v>-0.02706343986718677</v>
+        <v>0.03482023359820393</v>
       </c>
       <c r="D54">
-        <v>0.09668033181285035</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0902030355387384</v>
+      </c>
+      <c r="E54">
+        <v>-0.0373127709619219</v>
+      </c>
+      <c r="F54">
+        <v>-0.00373310540429873</v>
+      </c>
+      <c r="G54">
+        <v>-0.05695763543005481</v>
+      </c>
+      <c r="H54">
+        <v>0.07435210184509375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08847301319663876</v>
+        <v>0.08320541565024718</v>
       </c>
       <c r="C55">
-        <v>-0.06361159199291525</v>
+        <v>0.08129150085881241</v>
       </c>
       <c r="D55">
-        <v>-0.01346870727748828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006642877058585682</v>
+      </c>
+      <c r="E55">
+        <v>-0.06040788763078945</v>
+      </c>
+      <c r="F55">
+        <v>0.04693178129005749</v>
+      </c>
+      <c r="G55">
+        <v>0.03531402834473087</v>
+      </c>
+      <c r="H55">
+        <v>-0.004483895576277288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1385906039480937</v>
+        <v>0.1291596160582857</v>
       </c>
       <c r="C56">
-        <v>-0.09795861195040649</v>
+        <v>0.1277797959533881</v>
       </c>
       <c r="D56">
-        <v>-0.004055950209377628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.008249824569197602</v>
+      </c>
+      <c r="E56">
+        <v>-0.06202839151648963</v>
+      </c>
+      <c r="F56">
+        <v>0.04041847981617489</v>
+      </c>
+      <c r="G56">
+        <v>0.02115907321041911</v>
+      </c>
+      <c r="H56">
+        <v>-0.04716613861136141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004440691061758249</v>
+        <v>0.01726191540967533</v>
       </c>
       <c r="C58">
-        <v>-0.003410624446783808</v>
+        <v>0.030058276578729</v>
       </c>
       <c r="D58">
-        <v>0.3043754849586122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.351179306610377</v>
+      </c>
+      <c r="E58">
+        <v>-0.1733064071470285</v>
+      </c>
+      <c r="F58">
+        <v>0.09373153580523667</v>
+      </c>
+      <c r="G58">
+        <v>-0.02395827590370302</v>
+      </c>
+      <c r="H58">
+        <v>-0.02041529335689678</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1493088616188439</v>
+        <v>0.1822173612895691</v>
       </c>
       <c r="C59">
-        <v>0.1833338410932134</v>
+        <v>-0.167012536520472</v>
       </c>
       <c r="D59">
-        <v>0.03484572677955926</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05257345957646576</v>
+      </c>
+      <c r="E59">
+        <v>-0.02115068451260015</v>
+      </c>
+      <c r="F59">
+        <v>-0.03985722433018095</v>
+      </c>
+      <c r="G59">
+        <v>0.00810342292586522</v>
+      </c>
+      <c r="H59">
+        <v>-0.02158503255192799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2435974086831074</v>
+        <v>0.226998234607683</v>
       </c>
       <c r="C60">
-        <v>-0.07586855687146035</v>
+        <v>0.1063034504394515</v>
       </c>
       <c r="D60">
-        <v>0.2040004216613542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.119210582806702</v>
+      </c>
+      <c r="E60">
+        <v>0.3593058381739746</v>
+      </c>
+      <c r="F60">
+        <v>0.003568609949122547</v>
+      </c>
+      <c r="G60">
+        <v>0.07270441325407839</v>
+      </c>
+      <c r="H60">
+        <v>-0.1145066369693655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04254450029728235</v>
+        <v>0.03952056263536087</v>
       </c>
       <c r="C61">
-        <v>-0.05240607021135871</v>
+        <v>0.06287019619734625</v>
       </c>
       <c r="D61">
-        <v>0.1026668403705948</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0928898241653134</v>
+      </c>
+      <c r="E61">
+        <v>0.002409769353910687</v>
+      </c>
+      <c r="F61">
+        <v>-0.01678814275431494</v>
+      </c>
+      <c r="G61">
+        <v>-0.01951903946464636</v>
+      </c>
+      <c r="H61">
+        <v>0.05335939488393027</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01427556483689019</v>
+        <v>0.01465598905935542</v>
       </c>
       <c r="C63">
-        <v>-0.0234414691458031</v>
+        <v>0.03210322003163611</v>
       </c>
       <c r="D63">
-        <v>0.06425982254009936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06946643962226594</v>
+      </c>
+      <c r="E63">
+        <v>-0.02646891962183338</v>
+      </c>
+      <c r="F63">
+        <v>0.02056797610549978</v>
+      </c>
+      <c r="G63">
+        <v>-0.01249865627781516</v>
+      </c>
+      <c r="H63">
+        <v>0.05741841464213369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05512804587926256</v>
+        <v>0.050988055048837</v>
       </c>
       <c r="C64">
-        <v>-0.07431608078836802</v>
+        <v>0.08335846554214364</v>
       </c>
       <c r="D64">
-        <v>0.05772907770331489</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05468919695872426</v>
+      </c>
+      <c r="E64">
+        <v>-0.02331687717342418</v>
+      </c>
+      <c r="F64">
+        <v>-0.01405833283583784</v>
+      </c>
+      <c r="G64">
+        <v>0.03777400537086538</v>
+      </c>
+      <c r="H64">
+        <v>0.04869938096775366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04240425096667404</v>
+        <v>0.04205299941755952</v>
       </c>
       <c r="C65">
-        <v>-0.01324957667921052</v>
+        <v>0.02689538074387666</v>
       </c>
       <c r="D65">
-        <v>0.1289765009070681</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1239734609630284</v>
+      </c>
+      <c r="E65">
+        <v>0.002869466781845027</v>
+      </c>
+      <c r="F65">
+        <v>0.009432904675784511</v>
+      </c>
+      <c r="G65">
+        <v>-0.00904581751756639</v>
+      </c>
+      <c r="H65">
+        <v>0.01002473884502216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04051195303279936</v>
+        <v>0.03883525041201721</v>
       </c>
       <c r="C66">
-        <v>-0.05925339633815008</v>
+        <v>0.07754051602907955</v>
       </c>
       <c r="D66">
-        <v>0.109229187872515</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1294392390015396</v>
+      </c>
+      <c r="E66">
+        <v>-0.008594626792968041</v>
+      </c>
+      <c r="F66">
+        <v>-0.01426563984551588</v>
+      </c>
+      <c r="G66">
+        <v>-0.02615453445709779</v>
+      </c>
+      <c r="H66">
+        <v>0.0581392805597046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03940251948493637</v>
+        <v>0.03765274837300367</v>
       </c>
       <c r="C67">
-        <v>-0.02292745805589927</v>
+        <v>0.02769387985130149</v>
       </c>
       <c r="D67">
-        <v>0.02887071885802393</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02315815153561991</v>
+      </c>
+      <c r="E67">
+        <v>-0.01367169742607582</v>
+      </c>
+      <c r="F67">
+        <v>-0.00540211536373417</v>
+      </c>
+      <c r="G67">
+        <v>-0.04358310692671329</v>
+      </c>
+      <c r="H67">
+        <v>0.02765627180880195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.172647066503811</v>
+        <v>0.1993073093488927</v>
       </c>
       <c r="C68">
-        <v>0.2237027551698582</v>
+        <v>-0.1932876993454407</v>
       </c>
       <c r="D68">
-        <v>-0.0054511657412059</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0182894801680063</v>
+      </c>
+      <c r="E68">
+        <v>-0.04726028457115241</v>
+      </c>
+      <c r="F68">
+        <v>0.03641186828990023</v>
+      </c>
+      <c r="G68">
+        <v>-0.005878546530950942</v>
+      </c>
+      <c r="H68">
+        <v>0.01637859031216053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08227283590711362</v>
+        <v>0.07225716202960183</v>
       </c>
       <c r="C69">
-        <v>-0.08935325047923352</v>
+        <v>0.09929469735262222</v>
       </c>
       <c r="D69">
-        <v>0.06795354468961216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04830858609045743</v>
+      </c>
+      <c r="E69">
+        <v>-0.02376134484550163</v>
+      </c>
+      <c r="F69">
+        <v>0.01128693089409525</v>
+      </c>
+      <c r="G69">
+        <v>0.001965492828694447</v>
+      </c>
+      <c r="H69">
+        <v>-0.02048309841027212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1534565707157827</v>
+        <v>0.1879183446344403</v>
       </c>
       <c r="C71">
-        <v>0.22740876433301</v>
+        <v>-0.205935141868095</v>
       </c>
       <c r="D71">
-        <v>0.02585512489845231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.04345505583252172</v>
+      </c>
+      <c r="E71">
+        <v>-0.05284974772682025</v>
+      </c>
+      <c r="F71">
+        <v>0.04081932425521866</v>
+      </c>
+      <c r="G71">
+        <v>-0.005224318262138787</v>
+      </c>
+      <c r="H71">
+        <v>-0.01344237956860052</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1043319908519317</v>
+        <v>0.09902378359384686</v>
       </c>
       <c r="C72">
-        <v>-0.0486497727381584</v>
+        <v>0.0787737788495827</v>
       </c>
       <c r="D72">
-        <v>0.08333869320912568</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09157584623786848</v>
+      </c>
+      <c r="E72">
+        <v>0.03426059916070477</v>
+      </c>
+      <c r="F72">
+        <v>0.03681246714613191</v>
+      </c>
+      <c r="G72">
+        <v>0.02073563452073532</v>
+      </c>
+      <c r="H72">
+        <v>0.0592214289429438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2583410170714552</v>
+        <v>0.2375342624826456</v>
       </c>
       <c r="C73">
-        <v>-0.04252759097072434</v>
+        <v>0.09261169203918014</v>
       </c>
       <c r="D73">
-        <v>0.3067304790399875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1577009267573799</v>
+      </c>
+      <c r="E73">
+        <v>0.6672744980191062</v>
+      </c>
+      <c r="F73">
+        <v>-0.02220800098928441</v>
+      </c>
+      <c r="G73">
+        <v>0.09945920650947106</v>
+      </c>
+      <c r="H73">
+        <v>-0.1020445633482026</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1066848439399564</v>
+        <v>0.09664910978782915</v>
       </c>
       <c r="C74">
-        <v>-0.07145868343164807</v>
+        <v>0.09240547861292994</v>
       </c>
       <c r="D74">
-        <v>0.008052947251208547</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0009148048867408572</v>
+      </c>
+      <c r="E74">
+        <v>-0.07647768837953114</v>
+      </c>
+      <c r="F74">
+        <v>0.07471128730035845</v>
+      </c>
+      <c r="G74">
+        <v>0.05937807961466455</v>
+      </c>
+      <c r="H74">
+        <v>-0.01841096107415462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2471627057030911</v>
+        <v>0.2246740260453985</v>
       </c>
       <c r="C75">
-        <v>-0.1295851541368004</v>
+        <v>0.1665809867264814</v>
       </c>
       <c r="D75">
-        <v>-0.0732074514295024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09855048558532922</v>
+      </c>
+      <c r="E75">
+        <v>-0.1058425521854048</v>
+      </c>
+      <c r="F75">
+        <v>-0.006284268823508916</v>
+      </c>
+      <c r="G75">
+        <v>0.0522970976833439</v>
+      </c>
+      <c r="H75">
+        <v>-0.1010543410709534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1343871071317635</v>
+        <v>0.1227357721377584</v>
       </c>
       <c r="C76">
-        <v>-0.09302123348997725</v>
+        <v>0.1138891708124125</v>
       </c>
       <c r="D76">
-        <v>-0.009144805078328429</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.007910521767664694</v>
+      </c>
+      <c r="E76">
+        <v>-0.1169935589535973</v>
+      </c>
+      <c r="F76">
+        <v>0.02481901897618859</v>
+      </c>
+      <c r="G76">
+        <v>0.02757187117183795</v>
+      </c>
+      <c r="H76">
+        <v>0.002526912353216655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04984136087432086</v>
+        <v>0.05765072618292524</v>
       </c>
       <c r="C77">
-        <v>-0.07075807099392631</v>
+        <v>0.07028839437969603</v>
       </c>
       <c r="D77">
-        <v>0.04671475162843779</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1267964369770192</v>
+      </c>
+      <c r="E77">
+        <v>-0.235736371964835</v>
+      </c>
+      <c r="F77">
+        <v>-0.2831086615095548</v>
+      </c>
+      <c r="G77">
+        <v>-0.2433803589589345</v>
+      </c>
+      <c r="H77">
+        <v>-0.7761352917276513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03853407063497084</v>
+        <v>0.04355092468117527</v>
       </c>
       <c r="C78">
-        <v>-0.05794015802780984</v>
+        <v>0.06973632995082185</v>
       </c>
       <c r="D78">
-        <v>0.1224868356802707</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.135576904537843</v>
+      </c>
+      <c r="E78">
+        <v>-0.01144260208388263</v>
+      </c>
+      <c r="F78">
+        <v>0.01081162119170337</v>
+      </c>
+      <c r="G78">
+        <v>-0.002835980914427301</v>
+      </c>
+      <c r="H78">
+        <v>-0.01098459214859857</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02752772457462516</v>
+        <v>0.04639149101003718</v>
       </c>
       <c r="C79">
-        <v>-0.07954243602291185</v>
+        <v>0.09669460421970014</v>
       </c>
       <c r="D79">
-        <v>-0.07284521070266473</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02243768443256353</v>
+      </c>
+      <c r="E79">
+        <v>-0.2270028141593035</v>
+      </c>
+      <c r="F79">
+        <v>0.1701132913255956</v>
+      </c>
+      <c r="G79">
+        <v>0.8094905808197951</v>
+      </c>
+      <c r="H79">
+        <v>-0.1053380689702211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02791716237088775</v>
+        <v>0.02399967543629694</v>
       </c>
       <c r="C80">
-        <v>-0.04182908032385407</v>
+        <v>0.04665175007658018</v>
       </c>
       <c r="D80">
-        <v>0.01205876325909199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02228979257959844</v>
+      </c>
+      <c r="E80">
+        <v>-0.02323297472661464</v>
+      </c>
+      <c r="F80">
+        <v>0.001705536041143472</v>
+      </c>
+      <c r="G80">
+        <v>-0.02376213343346906</v>
+      </c>
+      <c r="H80">
+        <v>0.05269157509371984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1392272802504124</v>
+        <v>0.1232325856352804</v>
       </c>
       <c r="C81">
-        <v>-0.1029458621628029</v>
+        <v>0.1221185702482136</v>
       </c>
       <c r="D81">
-        <v>-0.06137729005429853</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07199730889179136</v>
+      </c>
+      <c r="E81">
+        <v>-0.114254311011238</v>
+      </c>
+      <c r="F81">
+        <v>0.0237601570627909</v>
+      </c>
+      <c r="G81">
+        <v>0.03273579926832679</v>
+      </c>
+      <c r="H81">
+        <v>-0.02415333927928228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3053751665610783</v>
+        <v>0.2546299403709529</v>
       </c>
       <c r="C82">
-        <v>-0.2752669710775846</v>
+        <v>0.270674754686956</v>
       </c>
       <c r="D82">
-        <v>-0.2480498797401486</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.250223285861505</v>
+      </c>
+      <c r="E82">
+        <v>0.01077215723210288</v>
+      </c>
+      <c r="F82">
+        <v>0.06914140234712975</v>
+      </c>
+      <c r="G82">
+        <v>-0.1985797661040969</v>
+      </c>
+      <c r="H82">
+        <v>-0.08608492624896359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02654581418774886</v>
+        <v>0.02108082837590374</v>
       </c>
       <c r="C83">
-        <v>-0.05245796164302503</v>
+        <v>0.0507297291252923</v>
       </c>
       <c r="D83">
-        <v>0.04457896362851546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04673148974486022</v>
+      </c>
+      <c r="E83">
+        <v>-0.01580626506432638</v>
+      </c>
+      <c r="F83">
+        <v>-0.04908056632897602</v>
+      </c>
+      <c r="G83">
+        <v>-0.05501226069905648</v>
+      </c>
+      <c r="H83">
+        <v>-0.0949335328813047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0006333524369523015</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004538407650780641</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01862241001174511</v>
+      </c>
+      <c r="E84">
+        <v>-0.01929754648074227</v>
+      </c>
+      <c r="F84">
+        <v>0.009809105673057008</v>
+      </c>
+      <c r="G84">
+        <v>-0.004895753322067643</v>
+      </c>
+      <c r="H84">
+        <v>0.01885077364566149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1732643863327458</v>
+        <v>0.1551951930519423</v>
       </c>
       <c r="C85">
-        <v>-0.1070971196554519</v>
+        <v>0.1384569350367403</v>
       </c>
       <c r="D85">
-        <v>-0.03259382099667075</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05882401789141832</v>
+      </c>
+      <c r="E85">
+        <v>-0.05319166967135847</v>
+      </c>
+      <c r="F85">
+        <v>0.03346047495086775</v>
+      </c>
+      <c r="G85">
+        <v>0.1106812166611888</v>
+      </c>
+      <c r="H85">
+        <v>0.01880532143705633</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01342947231684467</v>
+        <v>0.0196643974003664</v>
       </c>
       <c r="C86">
-        <v>-0.03617862046831512</v>
+        <v>0.02603015149709711</v>
       </c>
       <c r="D86">
-        <v>0.1268133381471791</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1184525083261671</v>
+      </c>
+      <c r="E86">
+        <v>-0.006220857408206856</v>
+      </c>
+      <c r="F86">
+        <v>-0.01403448289857009</v>
+      </c>
+      <c r="G86">
+        <v>-0.05347589242592646</v>
+      </c>
+      <c r="H86">
+        <v>-0.05770048781767412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0261667278342362</v>
+        <v>0.03507663336725701</v>
       </c>
       <c r="C87">
-        <v>-0.0103082906798753</v>
+        <v>0.02588965511387669</v>
       </c>
       <c r="D87">
-        <v>0.1001194457056176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1396865160229176</v>
+      </c>
+      <c r="E87">
+        <v>-0.07369029339268252</v>
+      </c>
+      <c r="F87">
+        <v>-0.00285697509856653</v>
+      </c>
+      <c r="G87">
+        <v>-0.02634678100690563</v>
+      </c>
+      <c r="H87">
+        <v>0.03130235370223118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07391675082079664</v>
+        <v>0.06761975805477077</v>
       </c>
       <c r="C88">
-        <v>-0.03962571843694136</v>
+        <v>0.05489614830082457</v>
       </c>
       <c r="D88">
-        <v>0.05182366028146598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0268854523858152</v>
+      </c>
+      <c r="E88">
+        <v>-0.000864489261223748</v>
+      </c>
+      <c r="F88">
+        <v>0.02331776492166187</v>
+      </c>
+      <c r="G88">
+        <v>0.00229645643113311</v>
+      </c>
+      <c r="H88">
+        <v>0.03388799378625142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2414487457303102</v>
+        <v>0.2876716883636286</v>
       </c>
       <c r="C89">
-        <v>0.3916392950617517</v>
+        <v>-0.3471809278978181</v>
       </c>
       <c r="D89">
-        <v>-0.03276061407156514</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.001296195368818078</v>
+      </c>
+      <c r="E89">
+        <v>-0.04451201960136632</v>
+      </c>
+      <c r="F89">
+        <v>-0.03619914580241005</v>
+      </c>
+      <c r="G89">
+        <v>0.018314160181267</v>
+      </c>
+      <c r="H89">
+        <v>0.0853324541339579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2134039816745825</v>
+        <v>0.2438390535975846</v>
       </c>
       <c r="C90">
-        <v>0.2937126819024969</v>
+        <v>-0.2470951538260699</v>
       </c>
       <c r="D90">
-        <v>-0.001052315530324056</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02213579600343625</v>
+      </c>
+      <c r="E90">
+        <v>-0.05125025692668678</v>
+      </c>
+      <c r="F90">
+        <v>0.003984736306650103</v>
+      </c>
+      <c r="G90">
+        <v>-0.06684348932997292</v>
+      </c>
+      <c r="H90">
+        <v>0.01396423376785578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1759857606732317</v>
+        <v>0.1543352142332648</v>
       </c>
       <c r="C91">
-        <v>-0.1483991917702099</v>
+        <v>0.1582473446446633</v>
       </c>
       <c r="D91">
-        <v>-0.08227277545569599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08422971172413815</v>
+      </c>
+      <c r="E91">
+        <v>-0.1102494054074093</v>
+      </c>
+      <c r="F91">
+        <v>0.02421105060921038</v>
+      </c>
+      <c r="G91">
+        <v>0.09859028712709038</v>
+      </c>
+      <c r="H91">
+        <v>-0.0687348820954886</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1856519767132841</v>
+        <v>0.2295823550878092</v>
       </c>
       <c r="C92">
-        <v>0.2834931538620936</v>
+        <v>-0.2683114505585</v>
       </c>
       <c r="D92">
-        <v>0.01747847734426062</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03340983049040195</v>
+      </c>
+      <c r="E92">
+        <v>-0.0889156100227232</v>
+      </c>
+      <c r="F92">
+        <v>0.0006521077610204583</v>
+      </c>
+      <c r="G92">
+        <v>-0.03604626561658532</v>
+      </c>
+      <c r="H92">
+        <v>-0.00203506496971376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2360285270908338</v>
+        <v>0.2664546771813181</v>
       </c>
       <c r="C93">
-        <v>0.295592755314356</v>
+        <v>-0.2573365688700157</v>
       </c>
       <c r="D93">
-        <v>0.006164516757175913</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001708231998990227</v>
+      </c>
+      <c r="E93">
+        <v>-0.00621006637647566</v>
+      </c>
+      <c r="F93">
+        <v>0.01723428506633863</v>
+      </c>
+      <c r="G93">
+        <v>0.0118238625067791</v>
+      </c>
+      <c r="H93">
+        <v>0.01481886241939572</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3750270912372884</v>
+        <v>0.326430674073284</v>
       </c>
       <c r="C94">
-        <v>-0.2346308999634</v>
+        <v>0.2650057092764653</v>
       </c>
       <c r="D94">
-        <v>-0.4331648894546071</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4208218440905304</v>
+      </c>
+      <c r="E94">
+        <v>-0.0787256873302743</v>
+      </c>
+      <c r="F94">
+        <v>-0.02967045823657815</v>
+      </c>
+      <c r="G94">
+        <v>-0.2458173331722815</v>
+      </c>
+      <c r="H94">
+        <v>0.3032345147453594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07840860582657352</v>
+        <v>0.07079951490875865</v>
       </c>
       <c r="C95">
-        <v>-0.06417718251627143</v>
+        <v>0.06826432877481563</v>
       </c>
       <c r="D95">
-        <v>0.1099050598591671</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07174532134482918</v>
+      </c>
+      <c r="E95">
+        <v>-0.05430427955122161</v>
+      </c>
+      <c r="F95">
+        <v>-0.8979494691250052</v>
+      </c>
+      <c r="G95">
+        <v>0.2083795485576357</v>
+      </c>
+      <c r="H95">
+        <v>0.233517966866627</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1700429986835709</v>
+        <v>0.1623221964578583</v>
       </c>
       <c r="C98">
-        <v>-0.03672138120499401</v>
+        <v>0.07119304250567375</v>
       </c>
       <c r="D98">
-        <v>0.1666678202944096</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1178514195592961</v>
+      </c>
+      <c r="E98">
+        <v>0.3163953142747302</v>
+      </c>
+      <c r="F98">
+        <v>0.03108603780551315</v>
+      </c>
+      <c r="G98">
+        <v>0.06114752920607686</v>
+      </c>
+      <c r="H98">
+        <v>-0.07128800043472687</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00191090268162411</v>
+        <v>0.004539214172114024</v>
       </c>
       <c r="C101">
-        <v>-0.01957315144948607</v>
+        <v>0.02166017948141112</v>
       </c>
       <c r="D101">
-        <v>0.07377683719297473</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09270091883693456</v>
+      </c>
+      <c r="E101">
+        <v>-0.02571804150318437</v>
+      </c>
+      <c r="F101">
+        <v>0.01927496159456018</v>
+      </c>
+      <c r="G101">
+        <v>-0.02332859520723708</v>
+      </c>
+      <c r="H101">
+        <v>0.09698075386885227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1238732542233181</v>
+        <v>0.1043842380853326</v>
       </c>
       <c r="C102">
-        <v>-0.1195941458788938</v>
+        <v>0.1226362304739113</v>
       </c>
       <c r="D102">
-        <v>-0.05033352040813268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06580080233544441</v>
+      </c>
+      <c r="E102">
+        <v>-0.02803861710829814</v>
+      </c>
+      <c r="F102">
+        <v>-0.01830232335041763</v>
+      </c>
+      <c r="G102">
+        <v>-0.005670136493168906</v>
+      </c>
+      <c r="H102">
+        <v>-0.0466415215480388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
